--- a/src/test/resources/testdata/PurchaseData.xlsx
+++ b/src/test/resources/testdata/PurchaseData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\untitled\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C59942-9091-4506-B0D2-2F1CF6DA583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180D653-A4E6-45F8-A2D7-5C39F6E95AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{1C5A2580-D2AF-4ACB-BC97-FFF24C610AF5}"/>
   </bookViews>
@@ -25,18 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>ProductName</t>
   </si>
   <si>
-    <t>Laptop</t>
+    <t>pencil</t>
   </si>
   <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>HeadPhone</t>
+    <t>bag</t>
   </si>
 </sst>
 </file>
@@ -408,12 +405,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
